--- a/amplifier/对比.xlsx
+++ b/amplifier/对比.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>差模增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +190,10 @@
   </si>
   <si>
     <t>将vdc用5个三极管替换，ss仿真中的增益不达标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               指标/单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -237,21 +233,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +547,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -547,31 +558,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,56 +619,54 @@
       <c r="N5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
@@ -676,21 +685,21 @@
         <v>30</v>
       </c>
       <c r="L7" s="1">
-        <f>(J7*2+K7)*1.8</f>
+        <f t="shared" ref="L7:L19" si="0">(J7*2+K7)*1.8</f>
         <v>140.30640000000002</v>
       </c>
       <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="1">
         <v>81.821259999999995</v>
       </c>
@@ -710,7 +719,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="1">
-        <f>(J8*2+K8)*1.8</f>
+        <f t="shared" si="0"/>
         <v>119.73528</v>
       </c>
       <c r="M8" s="1">
@@ -719,17 +728,17 @@
       <c r="N8" s="1">
         <v>773.95399999999995</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="O8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="1">
         <v>65.662350000000004</v>
       </c>
@@ -749,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="1">
-        <f>(J9*2+K9)*1.8</f>
+        <f t="shared" si="0"/>
         <v>74.696399999999997</v>
       </c>
       <c r="M9" s="1">
@@ -758,17 +767,17 @@
       <c r="N9" s="1">
         <v>698.64</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="O9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="1">
         <v>71.413420000000002</v>
       </c>
@@ -791,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="1">
-        <f>(J10*2+K10)*1.8</f>
+        <f t="shared" si="0"/>
         <v>26.675784</v>
       </c>
       <c r="M10" s="1">
@@ -800,17 +809,17 @@
       <c r="N10" s="1">
         <v>780.399</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="1">
         <v>73.472899999999996</v>
       </c>
@@ -837,23 +846,23 @@
         <v>4</v>
       </c>
       <c r="L11" s="1">
-        <f>(J11*2+K11)*1.8</f>
+        <f t="shared" si="0"/>
         <v>296.68536</v>
       </c>
       <c r="N11" s="1">
         <v>741.29399999999998</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="O11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="1">
         <v>84.625799999999998</v>
       </c>
@@ -882,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="1">
-        <f>(J12*2+K12)*1.8</f>
+        <f t="shared" si="0"/>
         <v>198.59184000000002</v>
       </c>
       <c r="M12" s="1">
@@ -891,17 +900,17 @@
       <c r="N12" s="1">
         <v>796.36099999999999</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="O12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="1">
         <v>72.819100000000006</v>
       </c>
@@ -930,24 +939,24 @@
         <v>10</v>
       </c>
       <c r="L13" s="1">
-        <f>(J13*2+K13)*1.8</f>
+        <f t="shared" si="0"/>
         <v>193.75848000000002</v>
       </c>
       <c r="N13" s="1">
         <v>728.44399999999996</v>
       </c>
-      <c r="O13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="O13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
+      <c r="A14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>76.370099999999994</v>
@@ -977,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="1">
-        <f>(J14*2+K14)*1.8</f>
+        <f t="shared" si="0"/>
         <v>98.670600000000007</v>
       </c>
       <c r="M14" s="1">
@@ -986,16 +995,16 @@
       <c r="N14" s="1">
         <v>699.221</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <f>E15+D15</f>
@@ -1026,20 +1035,20 @@
         <v>5</v>
       </c>
       <c r="L15" s="1">
-        <f>(J15*2+K15)*1.8</f>
+        <f t="shared" si="0"/>
         <v>99.489599999999996</v>
       </c>
       <c r="N15" s="1">
         <v>786.79600000000005</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>70.404899999999998</v>
@@ -1069,22 +1078,22 @@
         <v>5</v>
       </c>
       <c r="L16" s="1">
-        <f>(J16*2+K16)*1.8</f>
+        <f t="shared" si="0"/>
         <v>97.807320000000004</v>
       </c>
       <c r="N16" s="1">
         <v>611.38</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
+      <c r="A17" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>76.7136</v>
@@ -1114,22 +1123,22 @@
         <v>24.2819</v>
       </c>
       <c r="L17" s="1">
-        <f>(J17*2+K17)*1.8</f>
+        <f t="shared" si="0"/>
         <v>133.37873999999999</v>
       </c>
       <c r="N17" s="1">
         <v>699.22</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="O17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>78.683899999999994</v>
@@ -1159,20 +1168,20 @@
         <v>94.202100000000002</v>
       </c>
       <c r="L18" s="1">
-        <f>(J18*2+K18)*1.8</f>
+        <f t="shared" si="0"/>
         <v>260.05194</v>
       </c>
       <c r="N18" s="1">
         <v>786.79700000000003</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>66.900800000000004</v>
@@ -1202,22 +1211,34 @@
         <v>5.3290199999999999</v>
       </c>
       <c r="L19" s="1">
-        <f>(J19*2+K19)*1.8</f>
+        <f t="shared" si="0"/>
         <v>98.402075999999994</v>
       </c>
       <c r="N19" s="1">
         <v>611.37599999999998</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q16"/>
     <mergeCell ref="O17:Q19"/>
@@ -1228,19 +1249,6 @@
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/amplifier/对比.xlsx
+++ b/amplifier/对比.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,181 +20,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+  <si>
+    <t>共模增益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模抑制比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换速率 上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换速率 下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分路电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差动输出摆幅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共模输入：0.9V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD=1.8V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位裕度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V/us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeve++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vdc-finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeveCASsimulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleeveCascode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用了两个电流源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位裕度不达标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管子的尺寸不是整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管子的尺寸过大W=500u，输出电阻太高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管子的尺寸过大W=300u，输出电阻太高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用vdc替换了一个电流源，增益不达标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减小了管子尺寸后，W=200u，依然比较大，但是可能和增益定的标准太高有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将vdc用5个三极管替换，ss仿真中的增益不达标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">               指标/单位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>差模增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共模增益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模抑制比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换速率 上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换速率 下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分路电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差动输出摆幅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共模输入：0.9V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VDD=1.8V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位裕度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据比较</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>°</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V/us</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ss</t>
+    <t>指标及单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z1.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>z1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleeve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleeve++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vdc-finish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleeveCASsimulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sleeveCascode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用了两个电流源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位裕度不达标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管子的尺寸不是整数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管子的尺寸过大W=500u，输出电阻太高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管子的尺寸过大W=300u，输出电阻太高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用vdc替换了一个电流源，增益不达标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减小了管子尺寸后，W=200u，依然比较大，但是可能和增益定的标准太高有关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将vdc用5个三极管替换，ss仿真中的增益不达标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">               指标/单位名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,14 +268,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="H5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -558,115 +577,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1">
@@ -691,15 +710,15 @@
       <c r="M7" s="1">
         <v>0.6</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="1">
         <v>81.821259999999995</v>
       </c>
@@ -728,17 +747,17 @@
       <c r="N8" s="1">
         <v>773.95399999999995</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="O8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="1">
         <v>65.662350000000004</v>
       </c>
@@ -767,17 +786,17 @@
       <c r="N9" s="1">
         <v>698.64</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="O9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="1">
         <v>71.413420000000002</v>
       </c>
@@ -809,17 +828,17 @@
       <c r="N10" s="1">
         <v>780.399</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="O10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="1">
         <v>73.472899999999996</v>
       </c>
@@ -852,17 +871,17 @@
       <c r="N11" s="1">
         <v>741.29399999999998</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="O11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="1">
         <v>84.625799999999998</v>
       </c>
@@ -900,17 +919,17 @@
       <c r="N12" s="1">
         <v>796.36099999999999</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="O12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="1">
         <v>72.819100000000006</v>
       </c>
@@ -945,18 +964,18 @@
       <c r="N13" s="1">
         <v>728.44399999999996</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="O13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
+      <c r="A14" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <v>76.370099999999994</v>
@@ -996,15 +1015,15 @@
         <v>699.221</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <f>E15+D15</f>
@@ -1046,9 +1065,9 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <v>70.404899999999998</v>
@@ -1089,11 +1108,11 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>27</v>
+      <c r="A17" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>76.7136</v>
@@ -1130,15 +1149,15 @@
         <v>699.22</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>78.683899999999994</v>
@@ -1179,9 +1198,9 @@
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>66.900800000000004</v>
@@ -1254,4 +1273,472 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="10.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3">
+        <v>76.370099999999994</v>
+      </c>
+      <c r="D3" s="3">
+        <f>D5+D4</f>
+        <v>80.4495</v>
+      </c>
+      <c r="E3" s="3">
+        <v>70.404899999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-40.889899999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-41.4955</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-39.982399999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>117.26</v>
+      </c>
+      <c r="D5" s="3">
+        <v>121.94499999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>110.3873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>31.585899999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>32.112099999999998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30.960999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>69.877300000000005</v>
+      </c>
+      <c r="D7" s="3">
+        <v>70.057900000000004</v>
+      </c>
+      <c r="E7" s="3">
+        <v>69.691400000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>21.4208</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23.43937</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20.724640000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-388.26229999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>430.53030000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>-365.95150000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24.9085</v>
+      </c>
+      <c r="D10" s="3">
+        <v>25.135999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24.668700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <f>(C10*2+C11)*1.8</f>
+        <v>98.670600000000007</v>
+      </c>
+      <c r="D12" s="3">
+        <f>(D10*2+D11)*1.8</f>
+        <v>99.489599999999996</v>
+      </c>
+      <c r="E12" s="3">
+        <f>(E10*2+E11)*1.8</f>
+        <v>97.807320000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.386665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>699.221</v>
+      </c>
+      <c r="D14" s="3">
+        <v>786.79600000000005</v>
+      </c>
+      <c r="E14" s="3">
+        <v>611.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4">
+        <v>76.7136</v>
+      </c>
+      <c r="D17" s="4">
+        <v>78.683899999999994</v>
+      </c>
+      <c r="E17" s="4">
+        <v>66.900800000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-40.876100000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-41.529000000000003</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-39.939900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="4">
+        <v>117.5902</v>
+      </c>
+      <c r="D19" s="4">
+        <v>120.21299999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>106.8407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4">
+        <v>31.525400000000001</v>
+      </c>
+      <c r="D20" s="4">
+        <v>31.812200000000001</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30.7727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4">
+        <v>70.036600000000007</v>
+      </c>
+      <c r="D21" s="4">
+        <v>70.135400000000004</v>
+      </c>
+      <c r="E21" s="4">
+        <v>70.028999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4">
+        <v>25.479320000000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>28.248080000000002</v>
+      </c>
+      <c r="E22" s="4">
+        <v>25.09187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-356.37619999999998</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-404.9384</v>
+      </c>
+      <c r="E23" s="4">
+        <v>-342.07170000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>24.9087</v>
+      </c>
+      <c r="D24" s="4">
+        <v>25.1356</v>
+      </c>
+      <c r="E24" s="4">
+        <v>24.6694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4">
+        <v>24.2819</v>
+      </c>
+      <c r="D25" s="4">
+        <v>94.202100000000002</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.3290199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4">
+        <f>(C24*2+C25)*1.8</f>
+        <v>133.37873999999999</v>
+      </c>
+      <c r="D26" s="4">
+        <f>(D24*2+D25)*1.8</f>
+        <v>260.05194</v>
+      </c>
+      <c r="E26" s="4">
+        <f>(E24*2+E25)*1.8</f>
+        <v>98.402075999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4">
+        <v>699.22</v>
+      </c>
+      <c r="D28" s="4">
+        <v>786.79700000000003</v>
+      </c>
+      <c r="E28" s="4">
+        <v>611.37599999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/amplifier/对比.xlsx
+++ b/amplifier/对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>共模增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,14 +274,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="H5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:N19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -598,10 +598,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
@@ -645,8 +645,8 @@
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1014,11 +1014,11 @@
       <c r="N14" s="1">
         <v>699.221</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -1057,12 +1057,15 @@
         <f t="shared" si="0"/>
         <v>99.489599999999996</v>
       </c>
+      <c r="M15" s="1">
+        <v>1.507736</v>
+      </c>
       <c r="N15" s="1">
         <v>786.79600000000005</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -1100,12 +1103,15 @@
         <f t="shared" si="0"/>
         <v>97.807320000000004</v>
       </c>
+      <c r="M16" s="1">
+        <v>1.370892</v>
+      </c>
       <c r="N16" s="1">
         <v>611.38</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
@@ -1148,11 +1154,11 @@
       <c r="N17" s="1">
         <v>699.22</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -1193,9 +1199,9 @@
       <c r="N18" s="1">
         <v>786.79700000000003</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -1236,9 +1242,9 @@
       <c r="N19" s="1">
         <v>611.37599999999998</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O20" s="2"/>
@@ -1246,18 +1252,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:A16"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="O14:Q16"/>
     <mergeCell ref="O17:Q19"/>
@@ -1268,6 +1262,18 @@
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1277,11 +1283,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1493,6 +1497,12 @@
       <c r="C13" s="3">
         <v>1.386665</v>
       </c>
+      <c r="D13" s="3">
+        <v>1.507736</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.370892</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -1706,29 +1716,18 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C27" s="4">
         <v>699.22</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D27" s="4">
         <v>786.79700000000003</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E27" s="4">
         <v>611.37599999999998</v>
       </c>
     </row>
